--- a/Assets/Data/Excels/Result.xlsx
+++ b/Assets/Data/Excels/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\ggj\Assets\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\bishe\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706FA673-F81F-4233-A4A0-E8249C3DE7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CABD7-9146-49FB-A38F-48BB8033605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
+    <workbookView xWindow="144" yWindow="2388" windowWidth="7632" windowHeight="10212" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -376,12 +376,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -398,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +412,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,15 +733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B819A5-9F1E-45D2-BA3C-37ABB1FA1FBD}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -812,7 +821,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="D4" t="s">
@@ -829,7 +838,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>1002</v>
       </c>
       <c r="D5" t="s">
@@ -843,7 +852,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2001</v>
       </c>
       <c r="D6" t="s">
@@ -857,7 +866,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>2002</v>
       </c>
       <c r="D7" t="s">
@@ -871,7 +880,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
@@ -894,7 +903,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>3002</v>
       </c>
       <c r="B9" t="s">
@@ -914,7 +923,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>3003</v>
       </c>
       <c r="B10" t="s">
@@ -966,7 +975,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>3005</v>
       </c>
       <c r="B12" t="s">
@@ -989,7 +998,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>4001</v>
       </c>
       <c r="B13" t="s">
@@ -1006,7 +1015,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>4002</v>
       </c>
       <c r="B14" t="s">
@@ -1043,7 +1052,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>4004</v>
       </c>
       <c r="B16" t="s">
@@ -1063,7 +1072,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>4005</v>
       </c>
       <c r="B17" t="s">
@@ -1083,7 +1092,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>5001</v>
       </c>
       <c r="B18" t="s">
@@ -1106,7 +1115,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>5002</v>
       </c>
       <c r="B19" t="s">
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>5004</v>
       </c>
       <c r="B21" t="s">
@@ -1169,7 +1178,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>5005</v>
       </c>
       <c r="B22" t="s">
@@ -1221,7 +1230,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>6001</v>
       </c>
       <c r="B24" t="s">
@@ -1247,7 +1256,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>6002</v>
       </c>
       <c r="B25" t="s">
@@ -1273,7 +1282,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>6003</v>
       </c>
       <c r="B26" t="s">
@@ -1296,7 +1305,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>6004</v>
       </c>
       <c r="B27" t="s">
@@ -1342,7 +1351,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>7001</v>
       </c>
       <c r="B29" t="s">
@@ -1365,7 +1374,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>7002</v>
       </c>
       <c r="B30" t="s">
@@ -1385,7 +1394,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>7003</v>
       </c>
       <c r="B31" t="s">

--- a/Assets/Data/Excels/Result.xlsx
+++ b/Assets/Data/Excels/Result.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\bishe\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CABD7-9146-49FB-A38F-48BB8033605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA42FA2B-3015-429A-AC0B-D33933077D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="2388" windowWidth="7632" windowHeight="10212" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,78 +275,83 @@
     <t>你想起刚刚那位母亲的提醒，也许很快就要发生爆炸。你畏惧或许会发生的余震，立刻离开了这节车厢。不多时，你听见了爆炸的声音，似乎就在你刚刚滞留的地方。那个像你求救的人是否成功逃生？你不敢想象，你只能向前走去。</t>
   </si>
   <si>
+    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你下意识回头，惨烈的场景让你一阵反胃，失血过多使你头晕目眩，你什么也没能抢到。</t>
+  </si>
+  <si>
+    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你抢到了一瓶水，下意识回头，惨烈的场景让你一阵反胃。</t>
+  </si>
+  <si>
+    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你下意识回头，惨烈的场景让你一阵反胃，失血过多使你头晕目眩，你什么也没能抢到，但刚刚被你扶起的人抢到了水，将它递给了你。</t>
+  </si>
+  <si>
+    <t>顶灯即将落下，你冲了上去，失血过多让你头晕目眩，动作不够敏捷，仅仅将他推离，自己却被砸中了手臂。那人惊恐地看着坠落的顶灯，半晌才回过神来，感谢你的救助，希望与你同行。</t>
+  </si>
+  <si>
+    <t>顶灯即将落下，你冲了上去，重重将他推离。那人惊恐地看着坠落的顶灯，半晌才回过神来，感谢你的救助，希望与你同行。</t>
+  </si>
+  <si>
+    <t>你被人潮裹挟着向前，逃出了这节车厢。身后似乎传来了微弱的惨叫，很快就听不清了。</t>
+  </si>
+  <si>
+    <t>你被人潮裹挟着向前，逃出了这节车厢。同行者与你被人潮冲散，身后似乎传来了微弱的惨叫，很快就听不清了。</t>
+  </si>
+  <si>
+    <t>人群在漆黑的车厢中纷涌，你凭借直觉奋力抓住了他，和他互相搀扶着向前缓慢的移动。</t>
+  </si>
+  <si>
+    <t>同行者拿出手电，在微弱的光芒中扶起跌倒的人，在人群中缓慢前行。</t>
+  </si>
+  <si>
+    <t>同行者拿出手电，在微弱的光芒中扶起跌倒的人，但重伤的你被人群挤开。</t>
+  </si>
+  <si>
+    <t>人群在漆黑的车厢中纷涌，你凭借直觉奋力抓住了他，但失血过多让你无力扶起他，只能被人群裹挟着向前。</t>
+  </si>
+  <si>
+    <t>蜂拥而至的人群瞬间将食物抢完了。闹剧过后，你隐约看到一些没有力气的人在昏暗的角落中，没有分到一点食物。</t>
+  </si>
+  <si>
+    <t>蜂拥而至的人群瞬间将食物抢完了。闹剧过后，你隐约看到一些没有力气的人在昏暗的角落中，没有分到一点食物。同行者斥责你无用的善心，那些食物本该由你们分享，愤怒地离开了。</t>
+  </si>
+  <si>
+    <t>你立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂你的冷血无情。你默不作声，收好需要的物资，等待他们失去希望地离开。</t>
+  </si>
+  <si>
+    <t>你和同行者立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂你们的冷血无情。你默不作声，和同行者分配好需要的物资，等待他们失去希望地离开。</t>
+  </si>
+  <si>
+    <t>你立刻挤进房间，但失血过多的你没能关上大门，你跌坐在地上，状若疯癫的人群撞开房门抢走食物，什么也没用留给你。</t>
+  </si>
+  <si>
+    <t>你出声制止，救援人员发现了那人的伪装，不再理他，去救另一位伤者。伤者对你轻声道谢谢，男人愤怒至极，向你袭来，你躲闪不及，重重撞上钢板。</t>
+  </si>
+  <si>
+    <t>你出声制止，救援人员发现了那人的伪装，不再理他，去救另一位伤者。伤者对你说谢谢，男人愤怒至极，却不敢动你，只能愤怒地瞪视。</t>
+  </si>
+  <si>
+    <t>救援队识破了你们，转而救治其他伤者。你被迫在原地等待下一轮救援。</t>
+  </si>
+  <si>
+    <t>救援队救助了你们，你逃了出去。当你被拖拽到阳光之下，听见身后传来的声音：失血过多……或许再早一分钟……你回头，一具尸体注视着你的眼睛。</t>
+  </si>
+  <si>
+    <t>MorilityChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>你只能挣开他的手，震动让车厢几乎在颤抖，你不敢乱动，下意识躲藏在桌椅的掩藏之下。突然，爆发的闪光和奔涌的热浪几乎吞没了你，你耳中只有一阵尖锐的啸叫，刮过你皮肤的碎片几乎翻开皮肉，你的伤口开始流血，但你不能在留在此处，只能艰难地爬起来向下一节车厢逃去。</t>
-  </si>
-  <si>
-    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你下意识回头，惨烈的场景让你一阵反胃，失血过多使你头晕目眩，你什么也没能抢到。</t>
-  </si>
-  <si>
-    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你抢到了一瓶水，下意识回头，惨烈的场景让你一阵反胃。</t>
-  </si>
-  <si>
-    <t>你急忙挤进抢夺水的人群，旁边发出一声重响，人群尖叫着散开，你下意识回头，惨烈的场景让你一阵反胃，失血过多使你头晕目眩，你什么也没能抢到，但刚刚被你扶起的人抢到了水，将它递给了你。</t>
-  </si>
-  <si>
-    <t>顶灯即将落下，你冲了上去，失血过多让你头晕目眩，动作不够敏捷，仅仅将他推离，自己却被砸中了手臂。那人惊恐地看着坠落的顶灯，半晌才回过神来，感谢你的救助，希望与你同行。</t>
-  </si>
-  <si>
-    <t>顶灯即将落下，你冲了上去，重重将他推离。那人惊恐地看着坠落的顶灯，半晌才回过神来，感谢你的救助，希望与你同行。</t>
-  </si>
-  <si>
-    <t>你被人潮裹挟着向前，逃出了这节车厢。身后似乎传来了微弱的惨叫，很快就听不清了。</t>
-  </si>
-  <si>
-    <t>你被人潮裹挟着向前，逃出了这节车厢。同行者与你被人潮冲散，身后似乎传来了微弱的惨叫，很快就听不清了。</t>
-  </si>
-  <si>
-    <t>人群在漆黑的车厢中纷涌，你凭借直觉奋力抓住了他，和他互相搀扶着向前缓慢的移动。</t>
-  </si>
-  <si>
-    <t>同行者拿出手电，在微弱的光芒中扶起跌倒的人，在人群中缓慢前行。</t>
-  </si>
-  <si>
-    <t>同行者拿出手电，在微弱的光芒中扶起跌倒的人，但重伤的你被人群挤开。</t>
-  </si>
-  <si>
-    <t>人群在漆黑的车厢中纷涌，你凭借直觉奋力抓住了他，但失血过多让你无力扶起他，只能被人群裹挟着向前。</t>
-  </si>
-  <si>
-    <t>蜂拥而至的人群瞬间将食物抢完了。闹剧过后，你隐约看到一些没有力气的人在昏暗的角落中，没有分到一点食物。</t>
-  </si>
-  <si>
-    <t>蜂拥而至的人群瞬间将食物抢完了。闹剧过后，你隐约看到一些没有力气的人在昏暗的角落中，没有分到一点食物。同行者斥责你无用的善心，那些食物本该由你们分享，愤怒地离开了。</t>
-  </si>
-  <si>
-    <t>你立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂你的冷血无情。你默不作声，收好需要的物资，等待他们失去希望地离开。</t>
-  </si>
-  <si>
-    <t>你和同行者立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂你们的冷血无情。你默不作声，和同行者分配好需要的物资，等待他们失去希望地离开。</t>
-  </si>
-  <si>
-    <t>你立刻挤进房间，但失血过多的你没能关上大门，你跌坐在地上，状若疯癫的人群撞开房门抢走食物，什么也没用留给你。</t>
-  </si>
-  <si>
-    <t>你出声制止，救援人员发现了那人的伪装，不再理他，去救另一位伤者。伤者对你轻声道谢谢，男人愤怒至极，向你袭来，你躲闪不及，重重撞上钢板。</t>
-  </si>
-  <si>
-    <t>你出声制止，救援人员发现了那人的伪装，不再理他，去救另一位伤者。伤者对你说谢谢，男人愤怒至极，却不敢动你，只能愤怒地瞪视。</t>
-  </si>
-  <si>
-    <t>救援队识破了你们，转而救治其他伤者。你被迫在原地等待下一轮救援。</t>
-  </si>
-  <si>
-    <t>救援队救助了你们，你逃了出去。当你被拖拽到阳光之下，听见身后传来的声音：失血过多……或许再早一分钟……你回头，一具尸体注视着你的眼睛。</t>
-  </si>
-  <si>
-    <t>MorilityChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B819A5-9F1E-45D2-BA3C-37ABB1FA1FBD}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,6 +749,7 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="94.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
@@ -771,10 +778,10 @@
         <v>39</v>
       </c>
       <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,10 +807,10 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -982,10 +989,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1005,7 +1009,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
       <c r="H13">
         <v>-20</v>
@@ -1025,7 +1032,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14">
         <v>-20</v>
@@ -1042,7 +1049,10 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
       </c>
       <c r="H15">
         <v>-20</v>
@@ -1059,10 +1069,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -1082,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1102,7 +1109,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -1125,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -1145,7 +1152,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -1165,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -1185,10 +1192,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -1214,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -1240,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
@@ -1266,7 +1270,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -1292,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -1315,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -1335,7 +1339,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
@@ -1361,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -1384,7 +1388,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1401,7 +1405,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31">
         <v>-20</v>
@@ -1421,7 +1425,7 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32">
         <v>-20</v>
